--- a/Endpoints.xlsx
+++ b/Endpoints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BOQ-Management-App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75B8281-E121-4E4E-BE2D-3DC816A926D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA53576-8932-4AE7-ADA9-E3C82E65F237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="3315" windowWidth="36960" windowHeight="16440" activeTab="1" xr2:uid="{BB3D7A91-D89E-4A01-BA43-E64E25DC8AC2}"/>
+    <workbookView xWindow="13515" yWindow="3090" windowWidth="36960" windowHeight="16440" xr2:uid="{BB3D7A91-D89E-4A01-BA43-E64E25DC8AC2}"/>
   </bookViews>
   <sheets>
     <sheet name="backend" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="147">
   <si>
     <t>GET</t>
   </si>
@@ -67,18 +67,6 @@
     <t>boq</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>USER</t>
   </si>
   <si>
@@ -106,9 +94,6 @@
     <t>User</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>first_name</t>
   </si>
   <si>
@@ -136,9 +121,6 @@
     <t>BOQ Item</t>
   </si>
   <si>
-    <t>BOQ item breakup</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -238,30 +220,15 @@
     <t>project/{user_id}/{project_id}</t>
   </si>
   <si>
-    <t>Show project under user</t>
-  </si>
-  <si>
-    <t>boq/{user_id}</t>
-  </si>
-  <si>
-    <t>boq/{user_id}/{project_id}</t>
-  </si>
-  <si>
     <t>Show all boqs</t>
   </si>
   <si>
-    <t>show all boqs under user</t>
-  </si>
-  <si>
     <t>show all boqs under project</t>
   </si>
   <si>
     <t>show specific boq</t>
   </si>
   <si>
-    <t>boq/{user_id}/{project_id}/{boq_id}</t>
-  </si>
-  <si>
     <t>Delete specific project</t>
   </si>
   <si>
@@ -274,9 +241,6 @@
     <t>Delete all boqs under project</t>
   </si>
   <si>
-    <t>Delete all boqs under user</t>
-  </si>
-  <si>
     <t>Create boq item</t>
   </si>
   <si>
@@ -286,15 +250,6 @@
     <t>Delete specific boq item</t>
   </si>
   <si>
-    <t>boq/{user_id}/{project_id}/{boq_id}/{boq_item_id}</t>
-  </si>
-  <si>
-    <t>Show boq items under boq</t>
-  </si>
-  <si>
-    <t>boq/{user_id}/{project_id}/{boq_id}/boq_items</t>
-  </si>
-  <si>
     <t>BOQ Sub-item</t>
   </si>
   <si>
@@ -338,13 +293,196 @@
   </si>
   <si>
     <t>Show all invoices under user</t>
+  </si>
+  <si>
+    <t>Payment Breakup</t>
+  </si>
+  <si>
+    <t>payment_breakup_id</t>
+  </si>
+  <si>
+    <t>CRUD</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>Register User</t>
+  </si>
+  <si>
+    <t>Show all users</t>
+  </si>
+  <si>
+    <t>Show specific user</t>
+  </si>
+  <si>
+    <t>Update specifi user</t>
+  </si>
+  <si>
+    <t>Delete specific user</t>
+  </si>
+  <si>
+    <t>Delete all users</t>
+  </si>
+  <si>
+    <t>Login User</t>
+  </si>
+  <si>
+    <t>Create new project under user</t>
+  </si>
+  <si>
+    <t>Show specific project under user</t>
+  </si>
+  <si>
+    <t>Update specific project under user</t>
+  </si>
+  <si>
+    <t>Create a new boq under project and user</t>
+  </si>
+  <si>
+    <t>boq/{project_id}</t>
+  </si>
+  <si>
+    <t>boq/{project_id}/{boq_id}</t>
+  </si>
+  <si>
+    <t>Delete all items under boq</t>
+  </si>
+  <si>
+    <t>Create boq sub-item</t>
+  </si>
+  <si>
+    <t>Show all sub-items under item</t>
+  </si>
+  <si>
+    <t>Show specific item under boq</t>
+  </si>
+  <si>
+    <t>Show all items under boq</t>
+  </si>
+  <si>
+    <t>Show specific sub-items under item</t>
+  </si>
+  <si>
+    <t>Update specific sub-items under item</t>
+  </si>
+  <si>
+    <t>Delete specific sub-items under item</t>
+  </si>
+  <si>
+    <t>boqSubitem/{boq_item_id}</t>
+  </si>
+  <si>
+    <t>boqSubitem/{boq_item_id}/{boq_subitem_id}</t>
+  </si>
+  <si>
+    <t>boqItem/{boq_id}</t>
+  </si>
+  <si>
+    <t>boqItem/{boq_id}/{boq_item_id}</t>
+  </si>
+  <si>
+    <t>paymentBreakup/{boq_item_id}</t>
+  </si>
+  <si>
+    <t>Create new payment breakup</t>
+  </si>
+  <si>
+    <t>Show all payment breakups under boq item</t>
+  </si>
+  <si>
+    <t>paymentBreakup/{boq_item_id}/{payment_breakup_id}</t>
+  </si>
+  <si>
+    <t>Show specific payment breakups under boq item</t>
+  </si>
+  <si>
+    <t>Update specific payment breakups under boq item</t>
+  </si>
+  <si>
+    <t>Delete specific payment breakups under boq item</t>
+  </si>
+  <si>
+    <t>Update specific boq</t>
+  </si>
+  <si>
+    <t>autogenerate, numeric</t>
+  </si>
+  <si>
+    <t>mandatory, string</t>
+  </si>
+  <si>
+    <t>mandatory, email</t>
+  </si>
+  <si>
+    <t>mandatory, password</t>
+  </si>
+  <si>
+    <t>autogenerate, time</t>
+  </si>
+  <si>
+    <t>copied from user data</t>
+  </si>
+  <si>
+    <t>mandatory, location</t>
+  </si>
+  <si>
+    <t>percentage, 0 if blank</t>
+  </si>
+  <si>
+    <t>local currency</t>
+  </si>
+  <si>
+    <t>copied from project data</t>
+  </si>
+  <si>
+    <t>sum up the total amount of boq items</t>
+  </si>
+  <si>
+    <t>calculate the total billing complete compare total scope, percentage</t>
+  </si>
+  <si>
+    <t>calculate the average work complete, percentage</t>
+  </si>
+  <si>
+    <t>copied from boq data</t>
+  </si>
+  <si>
+    <t>string, optional</t>
+  </si>
+  <si>
+    <t>string, mandatory</t>
+  </si>
+  <si>
+    <t>numeric, mandatory</t>
+  </si>
+  <si>
+    <t>multiply the scope quantity and sor</t>
+  </si>
+  <si>
+    <t>BOQ Sub Item</t>
+  </si>
+  <si>
+    <t>boq_subitem_id</t>
+  </si>
+  <si>
+    <t>same as boq item</t>
+  </si>
+  <si>
+    <t>numeric, optional if there are sub-items under</t>
+  </si>
+  <si>
+    <t>copied from boq item data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,14 +492,36 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,12 +536,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC8E8E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -390,31 +580,940 @@
       <diagonal/>
     </border>
     <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFC8E8E"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -723,460 +1822,851 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FF1F9D-82D3-4823-AB0C-65F58E4673DA}">
-  <dimension ref="B1:M32"/>
+  <dimension ref="B1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="33.85546875" customWidth="1"/>
-    <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="46.85546875" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="5" width="18.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="18.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="37.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="45.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E1" s="1" t="s">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B1" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B3" s="49"/>
+      <c r="C3" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="36"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="C4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="51"/>
+      <c r="C5" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="38"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="51"/>
+      <c r="C6" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="73"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="38"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B7" s="52"/>
+      <c r="C7" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="74"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="39"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B8" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="C8" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="M8" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="C9" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B10" s="55"/>
+      <c r="C10" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" s="42"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="56"/>
+      <c r="C11" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="78"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="12"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J12" s="45"/>
+      <c r="K12" s="46"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3"/>
-    </row>
-    <row r="4" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="M16" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" t="s">
-        <v>85</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F6" s="3"/>
-      <c r="H6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="C17" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J8" t="s">
-        <v>83</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="C18" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="1" t="s">
+      <c r="C19" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="C20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+      <c r="I23" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="E28" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D29" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F32" t="s">
-        <v>50</v>
+      <c r="E29" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1188,70 +2678,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D73942E-D441-4699-825D-78CF4D28C73F}">
   <dimension ref="B2:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>100</v>
+      <c r="B8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Endpoints.xlsx
+++ b/Endpoints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BOQ-Management-App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA53576-8932-4AE7-ADA9-E3C82E65F237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F8EFB4-6E8E-437A-81D3-AE03692B806F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13515" yWindow="3090" windowWidth="36960" windowHeight="16440" xr2:uid="{BB3D7A91-D89E-4A01-BA43-E64E25DC8AC2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BB3D7A91-D89E-4A01-BA43-E64E25DC8AC2}"/>
   </bookViews>
   <sheets>
     <sheet name="backend" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="148">
   <si>
     <t>GET</t>
   </si>
@@ -268,30 +268,9 @@
     <t>Register Page</t>
   </si>
   <si>
-    <t>dheeradiprojects.com/register</t>
-  </si>
-  <si>
-    <t>dheeradiprojects.com/login</t>
-  </si>
-  <si>
-    <t>dheeradiprojects.com/{user_id}/dashboard</t>
-  </si>
-  <si>
-    <t>dheeradiprojects.com/{user_id}/projects</t>
-  </si>
-  <si>
-    <t>dheeradiprojects.com/{user_id}/bill_of_quantities</t>
-  </si>
-  <si>
-    <t>dheeradiprojects.com</t>
-  </si>
-  <si>
     <t>Show all boqs under user</t>
   </si>
   <si>
-    <t>dheeradiprojects.com/{user_id}/invoices</t>
-  </si>
-  <si>
     <t>Show all invoices under user</t>
   </si>
   <si>
@@ -343,12 +322,6 @@
     <t>Create a new boq under project and user</t>
   </si>
   <si>
-    <t>boq/{project_id}</t>
-  </si>
-  <si>
-    <t>boq/{project_id}/{boq_id}</t>
-  </si>
-  <si>
     <t>Delete all items under boq</t>
   </si>
   <si>
@@ -476,6 +449,36 @@
   </si>
   <si>
     <t>copied from boq item data</t>
+  </si>
+  <si>
+    <t>localhost:5173</t>
+  </si>
+  <si>
+    <t>localhost:5173/register</t>
+  </si>
+  <si>
+    <t>localhost:5173/login</t>
+  </si>
+  <si>
+    <t>localhost:5173/{user_id}/dashboard</t>
+  </si>
+  <si>
+    <t>localhost:5173/{user_id}/projects</t>
+  </si>
+  <si>
+    <t>localhost:5173/{user_id}/bill_of_quantities</t>
+  </si>
+  <si>
+    <t>localhost:5173/{user_id}/invoices</t>
+  </si>
+  <si>
+    <t>boq/{user_id}</t>
+  </si>
+  <si>
+    <t>boq/{user_id}/{project_id}</t>
+  </si>
+  <si>
+    <t>boq/{user_id}/{project_id}/{boq_id}</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1387,7 +1390,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1419,8 +1422,8 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1825,7 +1828,7 @@
   <dimension ref="B1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="H2" sqref="H2:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1834,7 +1837,8 @@
     <col min="2" max="5" width="18.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="28.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="18.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="18.7109375" style="3" customWidth="1"/>
     <col min="12" max="12" width="37.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.7109375" style="3" customWidth="1"/>
     <col min="14" max="14" width="45.140625" style="3" bestFit="1" customWidth="1"/>
@@ -1844,46 +1848,46 @@
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B1" s="47" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C1" s="79" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D1" s="69" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="67" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H1" s="68" t="s">
         <v>12</v>
       </c>
       <c r="I1" s="66" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J1" s="34" t="s">
         <v>13</v>
       </c>
       <c r="K1" s="44" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="L1" s="68" t="s">
         <v>71</v>
       </c>
       <c r="M1" s="66" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>72</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
@@ -1897,37 +1901,37 @@
         <v>6</v>
       </c>
       <c r="E2" s="57" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F2" s="35" t="s">
         <v>57</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="K2" s="25" t="s">
         <v>68</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
@@ -1939,7 +1943,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F3" s="36"/>
       <c r="G3" s="26"/>
@@ -1963,7 +1967,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>8</v>
@@ -1978,22 +1982,22 @@
         <v>61</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="L4" s="37" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
@@ -2005,7 +2009,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F5" s="38" t="s">
         <v>57</v>
@@ -2013,25 +2017,29 @@
       <c r="G5" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="28"/>
+      <c r="H5" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>77</v>
+      </c>
       <c r="J5" s="38" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="K5" s="28" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
@@ -2045,10 +2053,10 @@
         <v>60</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="I6" s="28" t="s">
         <v>62</v>
@@ -2070,7 +2078,7 @@
       <c r="F7" s="39"/>
       <c r="G7" s="29"/>
       <c r="H7" s="39" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="I7" s="29" t="s">
         <v>63</v>
@@ -2093,37 +2101,37 @@
         <v>2</v>
       </c>
       <c r="E8" s="62" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F8" s="40" t="s">
         <v>60</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="J8" s="40" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="K8" s="30" t="s">
         <v>69</v>
       </c>
       <c r="L8" s="40" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="M8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="N8" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="N8" s="20" t="s">
-        <v>119</v>
-      </c>
       <c r="O8" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
@@ -2137,7 +2145,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="63" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F9" s="41" t="s">
         <v>60</v>
@@ -2146,28 +2154,28 @@
         <v>64</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="I9" s="31" t="s">
         <v>66</v>
       </c>
       <c r="J9" s="41" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="K9" s="31" t="s">
         <v>70</v>
       </c>
       <c r="L9" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="M9" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="N9" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
@@ -2179,7 +2187,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="64" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F10" s="42" t="s">
         <v>57</v>
@@ -2188,16 +2196,16 @@
         <v>65</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="I10" s="32" t="s">
         <v>67</v>
       </c>
       <c r="J10" s="42" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="L10" s="42"/>
       <c r="M10" s="32"/>
@@ -2240,10 +2248,10 @@
         <v>27</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
@@ -2251,37 +2259,37 @@
         <v>56</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
@@ -2289,37 +2297,37 @@
         <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>30</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>31</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>31</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
@@ -2327,19 +2335,19 @@
         <v>20</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>34</v>
@@ -2348,7 +2356,7 @@
         <v>33</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
@@ -2356,31 +2364,31 @@
         <v>21</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>37</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>38</v>
@@ -2394,37 +2402,37 @@
         <v>22</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>41</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
@@ -2432,37 +2440,37 @@
         <v>23</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>43</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>43</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>44</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
@@ -2470,31 +2478,31 @@
         <v>24</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>46</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>46</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
@@ -2502,31 +2510,31 @@
         <v>25</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>33</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
@@ -2534,25 +2542,25 @@
         <v>47</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>51</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>51</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
@@ -2560,19 +2568,19 @@
         <v>49</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>53</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>53</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
@@ -2580,19 +2588,19 @@
         <v>52</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>54</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>54</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
@@ -2600,19 +2608,19 @@
         <v>33</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>40</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
@@ -2620,19 +2628,19 @@
         <v>25</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>55</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>55</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
@@ -2640,19 +2648,19 @@
         <v>44</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>25</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
@@ -2660,13 +2668,13 @@
         <v>44</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>44</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2679,18 +2687,19 @@
   <dimension ref="B2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="47.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
         <v>73</v>
@@ -2698,7 +2707,7 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
         <v>76</v>
@@ -2706,7 +2715,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
         <v>75</v>
@@ -2714,7 +2723,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -2722,7 +2731,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
         <v>59</v>
@@ -2730,18 +2739,18 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
